--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1543.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1543.xlsx
@@ -354,7 +354,7 @@
         <v>1.833280192377309</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.614800903176549</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1543.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1543.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.284853106216535</v>
+        <v>1.633893966674805</v>
       </c>
       <c r="B1">
-        <v>1.833280192377309</v>
+        <v>3.23035740852356</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.580103874206543</v>
       </c>
       <c r="D1">
-        <v>1.614800903176549</v>
+        <v>1.378569841384888</v>
       </c>
       <c r="E1">
-        <v>0.9148177404379265</v>
+        <v>0.8034419417381287</v>
       </c>
     </row>
   </sheetData>
